--- a/Testdata/TC_145.xlsx
+++ b/Testdata/TC_145.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>rDMAAB+LCAAAAAAAAAPtW1tvG8cV/isLPjVAqN2lKJlSRxvwIqlEKMkQqdjKizHcHUlbL3fZnVlJfHMeAgOuXaCoYyBpm9YBigYBGvshLVw7aP9LYMrOU/9Cz1z2xotFum5gAwyMmHMuM2fOnMu3gzH64LznaackpG7gbxTMJaOgEd8OHNc/3ihE7KhorhY+sNDmuU28qzjEPcJAWAMtn66fU3ejcMJYf13Xz87Ols6Wl4LwWC8Zhqlf32m17RPSw0XXpwz7NikkWs7lWgUL1Z3eDmHYwQxLzY1Cs91cqhPXbgBtB/v4mIRLtYi6PqF002cucwnlmiHBjNQbOx/JjVmlpdUlE+lj9FSyFrmeI+VykpKu5GBZ0nF7xCoZZqVorBXNSsc01kvL6+XKUrm88nGsmAiiFqasTcJT1xaENsO9vlA31syKaZSWyxWkTxSCuVIHWGjPc/bJqUuJUyeeR+fyiK4OsGoz2PV8zjSQntFVE72+Cdsh7p90XOaR+czY36lpPf99rfXhPvytbEons9BWEBIb/Phapu2Ss71QubfTbwG3c+KGbNDAg7nnOqAk3OtzZ82naqFG4LOqR0J20IczJw6EBDAsFkYE6VOYqVLDpTb8dv2IONYR9mhWKcdE14LwJu1jm+xCPut8jjPfC7ADgcdcylw7XXSMga6GQR9mhMVrgedswaxKeAIjmbnpg4v5srUguJlaN4mJxKmK84Uz7WEWi4/RUfskONvzvUE76lI7dLvEadRi6Yk8xBNTadcjyoIeWJGSkKRlKAP4DxJxlIwaxHZ72LvqgROptQyz5AioGrHgyGX1wIt6Po1tGqGia7CjDjlPdpiM0R4crs+dHvhNP5aXbp7IyivsB2fJmuMM4YQMuUrt+LjHGaPCDaDFxzfOESfCd7nletAnsmeRoeajon1CCJsYEpKDeEnc4p3Hqg12o14X0qsLOXYqVqVIT/kI4hRiHeyyDOgmRfGnYxjr4g/YkbDRpu9Ml4uZCJbLrGWZwBshIdiTV/OwfxOo11x2sluN9zKBg6QHpsqP8xBkbt/DA0FOvJSloaZve5FDZEFo+kciRLlt8lCnstEYqQU5biHsDzqDPtRn6q4z+LFRgI69TlkImKBg2UHks3DAKwfSlehlOjTq+mIB7M2scxSSX0UARQZbkW/XA2f21RzpnQPfZbNbGEShLIezqwjv8coY0QbhNUYU/Zn17Xn2RMO5xHs+6QW+a8/ubXAyt955jY3QOKtm1iAyv2aW96Cvy7bHc31mtRBwJDS6uZapUhrYrghWlR5ORl+fkjINcoQjDzAcgxZ7nNTeUTKq0pujMlkSOgi9uAJaHCFTgMi201uyATxwGLhkBz1O0AGZXmsjPSvPEZBNNv3jFvaPI8AYSV0ZpSf1l/fHToh9yreTQIqRUjxZCMV1SkIdSxavvUgEgixeAXCRPiKHOqTXD0Ls7YBj3C0VdgovARTZwexEjaC3ecSOnaynqolW3rLY8MvERJOS2+AJr8rkCFEI8b1IMJ7KpDTEd7kDaenVsed2Q1lV41Y+iQcHloLDuP7yzc0JFOMzgA8y6L4fkgFH6elA0UXImjFDBjAvpFZ7v1wprRgrK4Bs+BiJHW8Hp0wDDEwAI2pFrYPPtZ9rTd9xT10nwh78hOCDnUn3qBY0l2ZWB23F9V2YUAU785S8AOCMYxfax7hgwkkVrEOCQ2+QEZRbbAU2yF3c//fw6R8u7v9j+Olfii++/s3wzsP/fP/F8yffPH/6VFLlHqU06uCuR4RFnVqlYiyXIcASEuJe1QUmdiKbCdrhoYDCyRipLzsxqG8269utmigkCTFWl71E5x+NgyBKh225C7GQOEs9DgEpYnXiwqTGOW6mN1n8I+6U5KWz/GmK0hcvnv31xbO/TdVWDktBlrm2VimapUsxGHwOm2NyCQZr5Yo/Fy4XjZViqZQRHpFB+7LyJ35qOtayaawZ5hXDTIq4k0TxJKFRlpqpg4/1ET1JqktclIRAdhwzReR3CGUJW+ZCZqBi9O+/fvnos5yU8q6i5GcB4wR+4Yvp8UBMvbvf0dp7B/v1Ta2z2eZxkvIycnLyVwir1ZOEygWV70OWv69BV4cuphXgU6igBUcawfaJNoBUzCRiLtgmUeVCrznlqJXbYRD15YlkFFLqBMmknEzUmFBsBE/4c6zqpKwJ4tLW4T+/m6SgNtJIkay6AEniUtBQjiNJGb7K2s//9fzJbV7cHv92+OST3AxqneQ+AOIcsik7TMIeSp5qNCMUdK0tnHnTuJFpLIrIv6CuBq7PqGWWxceTGiFQNfls4m/U7EGvExMLfwF9hIJ+genmOVOJbe0iPU8AO/sY2myQfnQmBFnDU7/++McvL37/3cWDxy9vfzO88/Xw7oMXz/708tuHMusuPnt8ce9bVeVHG4GwhX/KSvSniYsRW+PZqPGmrf1w63eaHzANsIYWiYr0w63PM5NxQwUqSWcGLJcYkjdhTDSrzPW0jCmJDTm9REV2/jpvYcuJhGpiQd+100U+LvKpeN4Jxs+anWJEiRYAjHoPdpIXTpVn1VMqsqVevWKUzJLiSmv4FrqYZly/7QVdgBExQ9w8jIjktF6tkMqK9bZbe7VqKxWRRuyFDgl5GMofKMaSvKU0aTyKQy1DAS4gPjvy+GXRmNg4K5k5U8Z0detyVHV4+Zt8R5GTQPUoDCUi8tVlfjvqAwqO7+am88V9ZQb47kqQmoXC6bjZyPNhnOFCI8yzOUHwRWlSLFmmmpRf8Egcu8tdkw6Bl7vjBHeo+3qJtABVklDndWczDINwYvFJObHYDkBoqCh66vFERpyphNtOelYxIS54bwp2XzGnwu7LwPXbCKEXYPlNgeUVY0awXPqJwHJlFrBcWYDlBVhegOWJYNmcDpbNG5l2MA6WV5cXYHkBlt8psGwuwPK7ApZHis/bDJZXc2D5I+xFRINzJI7m+vyOOaLQ0ifh5qmibweEfvnw7vMnXwy/+nJ458/DW98vUPSbQtGV8mwo2lj9aVB0aXUGFC2FFih6gaLfJhQdv7UbR9Ex55Uo+uLBox9v3x1++nh47+Hw3lcXj+7/j3C6NB1Ol25kGsY4nC4t4PQCTr9bcLq0gNPvCpweKT7/Fzitp49FkroYNIhH2HwPqfVUeyc4fW1dOPt5VZt0z3OUM+d775K4JZ0g+5qcB8qbekwug64ahoC0+OvTuV9/x6+m9rF/PKdVcktCkT8/gtXV8+wtN6TsOm9M6pekHCaUQwlZr/OHyPKHGB9aZVMSQEDPzq7nzIxTmMm3/YHXcnvunG+SjDjP85OAL/t9iema80UMbzG75BwQZ2YGKI7dX0L7kI/45plNBi7U1ESfP5yl7vEJm9ewK11MHNI1inaXlIplx6gU1whZLpom/B/bJfi2WOHPbtXkUEFccjbnInp8YOm/ubH+CyC6WfysMwAA</t>
+          <t>fTUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb2Ikkl1vAEvkkqEukCkYysvxnJ3KE213GV3diXxzX0IDLh2gaKOgaRtWgcoGgRo7Ie0cO2g/S+BKTtP/Qs9M7N3kjZXcQMFoCFDO+c2Z86cOefbxQi9dz60pVPsUeI610vqilKSsGO6FnGOrpcCf1BW10vv6Wjz3MT2vuEZQ+yDsARaDt04p+R66dj3RxuyfHZ2tnK2uuJ6R7KmKKp8a6fTNY/x0CgTh/qGY+JSrGW9Xauko6Y13MG+YRm+ITSvl9rd9koTE7MFtB3DMY6wt9IIKHEwpZuOT3yCKdP0sOHjZmvnA7EwXVtZX1GRPEVPJBsBsS0hl5EU9FAOpsU9MsS6pmhKWamWNaWnVDcqlQ2ltlKpqB9GirEg6hjU72LvlJic0PWN4YirK1X2v1JRakieKQS2kgDoaM+2DvApodhqYtumhSIihxtYN31YdbFgKkhO6YaGLu/CtmeMjnvEt3FR9S3XwyYE6lJz7+KzPS+MX2/UAW7vmHj+uGWMC9u6QbG3N2LRKKaqo5br+HUbe/6NEWwqtmDPgaH7XoCRPIeZKLUINeGZOAG29IFh07RSholuut4JHRkm3oUDKzMbZ47tGhZklk+oT8xk0ikG2vfcEViEyRuubW2B1VB4BiO23HYgxGzahuueJN7NYiKeAzwbYE+Hhh+JT9FR99g923PscTfoU9MjfWy1GpH0TB5iJy/UbgbUd4fgRUJCgpaijOEfnLQ8GbWwSYaGvW9DEKm+ClYyBFQPfHdA/KZrB0OHRj7lqOgmrKiHz+MVxmO0B5vrsKC7TtuJ5EWYZ7KyCgfuWTznNIMHIUWuUzPa7mlGXrgFtGj7pjl8R9gqt4gNjSC9FylqNiu6xxj7M1NCcBCreVusteiN8W4w7MPx6sMZO+WzUiQnfAR5CrkOfukKtIsy/+kpygb/AT9iNtp0rPlyERPBdKm5dBV4ORKCNdkN23BOgHqT+Me79WgtMzhIRGCu/DQPwckd2caYk+MopWmo7Zh2YGFRENrOgKco801s6lw2miJ14IzryHDGvfEICjAlGz48XC9BS96gvgdNv6SbbuD43phVDiSHom/ToUHf4RMY9sI6Aw//KgCsMd4KHLPpWovPZono3HCIv7iHbuCJcri4Co8eq4wBbWFWY3jRX1jfLLIm6hUSHzp46DrEXDzaEGTmvXWJhdDoVC2sgcX5Wljehr4u2h476wureQAUodEVmqZOqWsSnqzh8bBS+vKcI9PCAyOwAaT50GKP4tqbJ6M6PcnLpEnohmdHFVBnEJgCBjat4YoJ4IHhvBXTHTKCDNDzZhfJaXmGgEy86Rx1DOcoAIwR15U8Pa6/rD/2PMOhbDkxpMiV4tlCKKpTAuroonjtBTwRRPFygYvknBzq4eHI9Qx7BwJDtsK0C/ESQJEdwz8OR9DbbGxGQZYT1Vgr61nk+NvEeJMSy2AHPiyTOSIXYmsRaDuRSWiIrXIHjqXdNGzS90RVjVr5LB5sWAIOo/rLFlcQKEZ7AG9c0H3fx2MGw5NBSOcpq0YMkcCskOrdg0pVW1PW1gDZsDHiK952T30JMDAGjCiVpZ5xLv1cajsWOSVWYNjwCMkHKxPhCVtQIc20DtqK6jt3oQ5+ZilZAcAZRwTax7RgzEkU9ENsePY4JSiW2HFNkLt4+J/J8z9ePPzn5KO/ll998dvJvcf//ebTl8++fPn8uaCKNQpp1DP6NuYe9RrVqrJagQSLSYhFVeaY2ApMn9MODzkUjscofHXjg+Zmu7ndafBCEhMjddFLZPZWOHaDZNgVq+AT8b2UoxQQInovKkzhOMNN9SadvaWd4qx0mj9PUcTi1Yu/vXrx97naYcASkKXWatWyqr0Vg2mKqk7JxRiskyn+TLhSVtbKmpYSzsmgA1H54zi1LX1VVWqKek1R4yJuxVk8SyjPCi31jCM5pydITYGL4hRIjyMmz/wepn7MFmchNQhz9B+/ef3k44xUGN2QkrUCznH8wiaTowE3vXvQk7p7Nw6am1Jvs8vyJOGl5ITxNwiHs8cHKpNUjgOn/GcSdHXoYlIJXoVKkjuQsGEeS2M4iqmDmEm2WVQx0SVN5r3c9txgJHYkpZBQZ0jG5WSmxoxiw3k8nlNVJ2HNEBe+Tv719SyFcCGtBMnqBzsNaejEeclpKMMRpBQ/PLWf/Pvls7usuD393eTZrzMWwnni7wGQ53Ca0sM47aHkhY0mR0E3uzyYJ8rtVGMJiewNat8ljk91tcJfnsIRAlWVWeO/UXsIvY4b5vECeo6CfmHQzXM/PNj6LpKzBPBzZECbdZOXzpggangS1+/+9NnFH76+ePT09d0vJ/e+mNx/9OrFn19/9VicuouPn148+Cqs8vlGwH1hr7IC/Un8w4gpsdMosaYtfXvn95Lj+hJgDSngFenbO5+kjDFHOSpJLAOWix3JujAlmlZmelLKldiHjF6sIjp/k7Ww1VgibGLuiJjJJB+WmSl27jjjJ+1eOaBYcgFG/RRWkhVOlBfVC1VES92/pmiqFnKFN2wJfYOmQr9tu32AERGDf3nIiWS03qyQyPL5tjt7jXonERFO7HkW9lgaigfUphGajNIrRQEuoDwzsNkHoimxaRaKnlKlSw6/tAzqFit5s79LZCRQM/A8gYKc8At9NxgB8o2+x83n82+UKbC7K4BpGv4m43Yry4dxigvNL8tmBM7n5ShkidLUpuyjjsCuuyw0yRB4me+aEI7wI7xAV4AksSezWrPpea43s+AknEhsB2AzVBE5iXgsI7MpBcS2kr2KCFGRe1dQ+5o6F2q/DVBfRdi8BMjvCiCvKQsCZO0HAsjVRQBydQmQlwB5CZBnAmR1PkBWb6fawTRAXl9dAuQlQP5RAWR1CZCvMkDOFZyrDJDXMwD5A8MOsAT7iC2JOOxbckChjc/CynNFrwZsfv34/stnn04+/2xy7y+TO98skfO7Qs7VymLIWVn/YZCztr4AchZCS+S8RM5XCTl33j+Yg5wjzhuR88WjJ9/dvT/56OnkwePJg88vnjz8nhBamw+htduphjENobUlhF5C6B8XhNaWEPoqQ+hcwfm/QGg5uQgS10K3hW3sF74FHWnvuKeX1oW9L6rapnu2FQaz2F2WOCyJgfRVcJYoRZ2pex7gJ3Z3tPDd7Q5xTtrFVq9rVq1WUw3jmjWoWYNKX+tX1OraYH2tr1ira1VAkNwou9rETAwBZLOLQcUmAdSYVU8ucR0YzlFBayLAXJFddIJI8QMZFvZ4jLaIR/1brFOGT4JyGFMOBYa+xW5Aiwc+PtQrqiCAgJyeTM54HdUXX/zVgGt3yJAUvAylREUoawTSYDQSILPohkLP28XnAIFTFqBa938J/UzcHixiTZwqKPKxfmSrG/QLm5Mj5X3gs8S6nPamBbjs8tr8Dj6xv4cDHHld1kTboeTo2C98UGu1VbyOtbI2MM1yBQZl6Mb9smUMaqqiDFatNY1dlw6NQ3cg+KzgJKynEAovGMX15NwfUen/AyLEcN99NQAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.0156159028969747</v>
+        <v>0.01561590289697475</v>
       </c>
       <c r="C20" s="2">
-        <v>0.5088159326089575</v>
+        <v>0.5088159326089573</v>
       </c>
       <c r="D20" s="2">
         <v>0.5012749293714148</v>
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.075751539480832</v>
+        <v>-1.075751539480831</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.497756315366257</v>
+        <v>-0.4977563153662574</v>
       </c>
       <c r="D21" s="2">
         <v>-0.7795762174608876</v>
@@ -1030,4 +1030,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>4</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9336C6-D94F-4297-875A-509DE4A6EAA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_145.xlsx
+++ b/Testdata/TC_145.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>fTUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb2Ikkl1vAEvkkqEukCkYysvxnJ3KE213GV3diXxzX0IDLh2gaKOgaRtWgcoGgRo7Ie0cO2g/S+BKTtP/Qs9M7N3kjZXcQMFoCFDO+c2Z86cOefbxQi9dz60pVPsUeI610vqilKSsGO6FnGOrpcCf1BW10vv6Wjz3MT2vuEZQ+yDsARaDt04p+R66dj3RxuyfHZ2tnK2uuJ6R7KmKKp8a6fTNY/x0CgTh/qGY+JSrGW9Xauko6Y13MG+YRm+ITSvl9rd9koTE7MFtB3DMY6wt9IIKHEwpZuOT3yCKdP0sOHjZmvnA7EwXVtZX1GRPEVPJBsBsS0hl5EU9FAOpsU9MsS6pmhKWamWNaWnVDcqlQ2ltlKpqB9GirEg6hjU72LvlJic0PWN4YirK1X2v1JRakieKQS2kgDoaM+2DvApodhqYtumhSIihxtYN31YdbFgKkhO6YaGLu/CtmeMjnvEt3FR9S3XwyYE6lJz7+KzPS+MX2/UAW7vmHj+uGWMC9u6QbG3N2LRKKaqo5br+HUbe/6NEWwqtmDPgaH7XoCRPIeZKLUINeGZOAG29IFh07RSholuut4JHRkm3oUDKzMbZ47tGhZklk+oT8xk0ikG2vfcEViEyRuubW2B1VB4BiO23HYgxGzahuueJN7NYiKeAzwbYE+Hhh+JT9FR99g923PscTfoU9MjfWy1GpH0TB5iJy/UbgbUd4fgRUJCgpaijOEfnLQ8GbWwSYaGvW9DEKm+ClYyBFQPfHdA/KZrB0OHRj7lqOgmrKiHz+MVxmO0B5vrsKC7TtuJ5EWYZ7KyCgfuWTznNIMHIUWuUzPa7mlGXrgFtGj7pjl8R9gqt4gNjSC9FylqNiu6xxj7M1NCcBCreVusteiN8W4w7MPx6sMZO+WzUiQnfAR5CrkOfukKtIsy/+kpygb/AT9iNtp0rPlyERPBdKm5dBV4ORKCNdkN23BOgHqT+Me79WgtMzhIRGCu/DQPwckd2caYk+MopWmo7Zh2YGFRENrOgKco801s6lw2miJ14IzryHDGvfEICjAlGz48XC9BS96gvgdNv6SbbuD43phVDiSHom/ToUHf4RMY9sI6Aw//KgCsMd4KHLPpWovPZono3HCIv7iHbuCJcri4Co8eq4wBbWFWY3jRX1jfLLIm6hUSHzp46DrEXDzaEGTmvXWJhdDoVC2sgcX5Wljehr4u2h476wureQAUodEVmqZOqWsSnqzh8bBS+vKcI9PCAyOwAaT50GKP4tqbJ6M6PcnLpEnohmdHFVBnEJgCBjat4YoJ4IHhvBXTHTKCDNDzZhfJaXmGgEy86Rx1DOcoAIwR15U8Pa6/rD/2PMOhbDkxpMiV4tlCKKpTAuroonjtBTwRRPFygYvknBzq4eHI9Qx7BwJDtsK0C/ESQJEdwz8OR9DbbGxGQZYT1Vgr61nk+NvEeJMSy2AHPiyTOSIXYmsRaDuRSWiIrXIHjqXdNGzS90RVjVr5LB5sWAIOo/rLFlcQKEZ7AG9c0H3fx2MGw5NBSOcpq0YMkcCskOrdg0pVW1PW1gDZsDHiK952T30JMDAGjCiVpZ5xLv1cajsWOSVWYNjwCMkHKxPhCVtQIc20DtqK6jt3oQ5+ZilZAcAZRwTax7RgzEkU9ENsePY4JSiW2HFNkLt4+J/J8z9ePPzn5KO/ll998dvJvcf//ebTl8++fPn8uaCKNQpp1DP6NuYe9RrVqrJagQSLSYhFVeaY2ApMn9MODzkUjscofHXjg+Zmu7ndafBCEhMjddFLZPZWOHaDZNgVq+AT8b2UoxQQInovKkzhOMNN9SadvaWd4qx0mj9PUcTi1Yu/vXrx97naYcASkKXWatWyqr0Vg2mKqk7JxRiskyn+TLhSVtbKmpYSzsmgA1H54zi1LX1VVWqKek1R4yJuxVk8SyjPCi31jCM5pydITYGL4hRIjyMmz/wepn7MFmchNQhz9B+/ef3k44xUGN2QkrUCznH8wiaTowE3vXvQk7p7Nw6am1Jvs8vyJOGl5ITxNwiHs8cHKpNUjgOn/GcSdHXoYlIJXoVKkjuQsGEeS2M4iqmDmEm2WVQx0SVN5r3c9txgJHYkpZBQZ0jG5WSmxoxiw3k8nlNVJ2HNEBe+Tv719SyFcCGtBMnqBzsNaejEeclpKMMRpBQ/PLWf/Pvls7usuD393eTZrzMWwnni7wGQ53Ca0sM47aHkhY0mR0E3uzyYJ8rtVGMJiewNat8ljk91tcJfnsIRAlWVWeO/UXsIvY4b5vECeo6CfmHQzXM/PNj6LpKzBPBzZECbdZOXzpggangS1+/+9NnFH76+ePT09d0vJ/e+mNx/9OrFn19/9VicuouPn148+Cqs8vlGwH1hr7IC/Un8w4gpsdMosaYtfXvn95Lj+hJgDSngFenbO5+kjDFHOSpJLAOWix3JujAlmlZmelLKldiHjF6sIjp/k7Ww1VgibGLuiJjJJB+WmSl27jjjJ+1eOaBYcgFG/RRWkhVOlBfVC1VES92/pmiqFnKFN2wJfYOmQr9tu32AERGDf3nIiWS03qyQyPL5tjt7jXonERFO7HkW9lgaigfUphGajNIrRQEuoDwzsNkHoimxaRaKnlKlSw6/tAzqFit5s79LZCRQM/A8gYKc8At9NxgB8o2+x83n82+UKbC7K4BpGv4m43Yry4dxigvNL8tmBM7n5ShkidLUpuyjjsCuuyw0yRB4me+aEI7wI7xAV4AksSezWrPpea43s+AknEhsB2AzVBE5iXgsI7MpBcS2kr2KCFGRe1dQ+5o6F2q/DVBfRdi8BMjvCiCvKQsCZO0HAsjVRQBydQmQlwB5CZBnAmR1PkBWb6fawTRAXl9dAuQlQP5RAWR1CZCvMkDOFZyrDJDXMwD5A8MOsAT7iC2JOOxbckChjc/CynNFrwZsfv34/stnn04+/2xy7y+TO98skfO7Qs7VymLIWVn/YZCztr4AchZCS+S8RM5XCTl33j+Yg5wjzhuR88WjJ9/dvT/56OnkwePJg88vnjz8nhBamw+htduphjENobUlhF5C6B8XhNaWEPoqQ+hcwfm/QGg5uQgS10K3hW3sF74FHWnvuKeX1oW9L6rapnu2FQaz2F2WOCyJgfRVcJYoRZ2pex7gJ3Z3tPDd7Q5xTtrFVq9rVq1WUw3jmjWoWYNKX+tX1OraYH2tr1ira1VAkNwou9rETAwBZLOLQcUmAdSYVU8ucR0YzlFBayLAXJFddIJI8QMZFvZ4jLaIR/1brFOGT4JyGFMOBYa+xW5Aiwc+PtQrqiCAgJyeTM54HdUXX/zVgGt3yJAUvAylREUoawTSYDQSILPohkLP28XnAIFTFqBa938J/UzcHixiTZwqKPKxfmSrG/QLm5Mj5X3gs8S6nPamBbjs8tr8Dj6xv4cDHHld1kTboeTo2C98UGu1VbyOtbI2MM1yBQZl6Mb9smUMaqqiDFatNY1dlw6NQ3cg+KzgJKynEAovGMX15NwfUen/AyLEcN99NQAA</t>
+          <t>rDMAAB+LCAAAAAAAAAPtW1tvG8cV/isLPjVAqN2lKJlSRxvwIqlEKMkQqdjKizHcHUlbL3fZnVlJfHMeAgOuXaCoYyBpm9YBigYBGvshLVw7aP9LYMrOU/9Cz1z2xotFum5gAwyMmHMuM2fOnMu3gzH64LznaackpG7gbxTMJaOgEd8OHNc/3ihE7KhorhY+sNDmuU28qzjEPcJAWAMtn66fU3ejcMJYf13Xz87Ols6Wl4LwWC8Zhqlf32m17RPSw0XXpwz7NikkWs7lWgUL1Z3eDmHYwQxLzY1Cs91cqhPXbgBtB/v4mIRLtYi6PqF002cucwnlmiHBjNQbOx/JjVmlpdUlE+lj9FSyFrmeI+VykpKu5GBZ0nF7xCoZZqVorBXNSsc01kvL6+XKUrm88nGsmAiiFqasTcJT1xaENsO9vlA31syKaZSWyxWkTxSCuVIHWGjPc/bJqUuJUyeeR+fyiK4OsGoz2PV8zjSQntFVE72+Cdsh7p90XOaR+czY36lpPf99rfXhPvytbEons9BWEBIb/Phapu2Ss71QubfTbwG3c+KGbNDAg7nnOqAk3OtzZ82naqFG4LOqR0J20IczJw6EBDAsFkYE6VOYqVLDpTb8dv2IONYR9mhWKcdE14LwJu1jm+xCPut8jjPfC7ADgcdcylw7XXSMga6GQR9mhMVrgedswaxKeAIjmbnpg4v5srUguJlaN4mJxKmK84Uz7WEWi4/RUfskONvzvUE76lI7dLvEadRi6Yk8xBNTadcjyoIeWJGSkKRlKAP4DxJxlIwaxHZ72LvqgROptQyz5AioGrHgyGX1wIt6Po1tGqGia7CjDjlPdpiM0R4crs+dHvhNP5aXbp7IyivsB2fJmuMM4YQMuUrt+LjHGaPCDaDFxzfOESfCd7nletAnsmeRoeajon1CCJsYEpKDeEnc4p3Hqg12o14X0qsLOXYqVqVIT/kI4hRiHeyyDOgmRfGnYxjr4g/YkbDRpu9Ml4uZCJbLrGWZwBshIdiTV/OwfxOo11x2sluN9zKBg6QHpsqP8xBkbt/DA0FOvJSloaZve5FDZEFo+kciRLlt8lCnstEYqQU5biHsDzqDPtRn6q4z+LFRgI69TlkImKBg2UHks3DAKwfSlehlOjTq+mIB7M2scxSSX0UARQZbkW/XA2f21RzpnQPfZbNbGEShLIezqwjv8coY0QbhNUYU/Zn17Xn2RMO5xHs+6QW+a8/ubXAyt955jY3QOKtm1iAyv2aW96Cvy7bHc31mtRBwJDS6uZapUhrYrghWlR5ORl+fkjINcoQjDzAcgxZ7nNTeUTKq0pujMlkSOgi9uAJaHCFTgMi201uyATxwGLhkBz1O0AGZXmsjPSvPEZBNNv3jFvaPI8AYSV0ZpSf1l/fHToh9yreTQIqRUjxZCMV1SkIdSxavvUgEgixeAXCRPiKHOqTXD0Ls7YBj3C0VdgovARTZwexEjaC3ecSOnaynqolW3rLY8MvERJOS2+AJr8rkCFEI8b1IMJ7KpDTEd7kDaenVsed2Q1lV41Y+iQcHloLDuP7yzc0JFOMzgA8y6L4fkgFH6elA0UXImjFDBjAvpFZ7v1wprRgrK4Bs+BiJHW8Hp0wDDEwAI2pFrYPPtZ9rTd9xT10nwh78hOCDnUn3qBY0l2ZWB23F9V2YUAU785S8AOCMYxfax7hgwkkVrEOCQ2+QEZRbbAU2yF3c//fw6R8u7v9j+Olfii++/s3wzsP/fP/F8yffPH/6VFLlHqU06uCuR4RFnVqlYiyXIcASEuJe1QUmdiKbCdrhoYDCyRipLzsxqG8269utmigkCTFWl71E5x+NgyBKh225C7GQOEs9DgEpYnXiwqTGOW6mN1n8I+6U5KWz/GmK0hcvnv31xbO/TdVWDktBlrm2VimapUsxGHwOm2NyCQZr5Yo/Fy4XjZViqZQRHpFB+7LyJ35qOtayaawZ5hXDTIq4k0TxJKFRlpqpg4/1ET1JqktclIRAdhwzReR3CGUJW+ZCZqBi9O+/fvnos5yU8q6i5GcB4wR+4Yvp8UBMvbvf0dp7B/v1Ta2z2eZxkvIycnLyVwir1ZOEygWV70OWv69BV4cuphXgU6igBUcawfaJNoBUzCRiLtgmUeVCrznlqJXbYRD15YlkFFLqBMmknEzUmFBsBE/4c6zqpKwJ4tLW4T+/m6SgNtJIkay6AEniUtBQjiNJGb7K2s//9fzJbV7cHv92+OST3AxqneQ+AOIcsik7TMIeSp5qNCMUdK0tnHnTuJFpLIrIv6CuBq7PqGWWxceTGiFQNfls4m/U7EGvExMLfwF9hIJ+genmOVOJbe0iPU8AO/sY2myQfnQmBFnDU7/++McvL37/3cWDxy9vfzO88/Xw7oMXz/708tuHMusuPnt8ce9bVeVHG4GwhX/KSvSniYsRW+PZqPGmrf1w63eaHzANsIYWiYr0w63PM5NxQwUqSWcGLJcYkjdhTDSrzPW0jCmJDTm9REV2/jpvYcuJhGpiQd+100U+LvKpeN4Jxs+anWJEiRYAjHoPdpIXTpVn1VMqsqVevWKUzJLiSmv4FrqYZly/7QVdgBExQ9w8jIjktF6tkMqK9bZbe7VqKxWRRuyFDgl5GMofKMaSvKU0aTyKQy1DAS4gPjvy+GXRmNg4K5k5U8Z0detyVHV4+Zt8R5GTQPUoDCUi8tVlfjvqAwqO7+am88V9ZQb47kqQmoXC6bjZyPNhnOFCI8yzOUHwRWlSLFmmmpRf8Egcu8tdkw6Bl7vjBHeo+3qJtABVklDndWczDINwYvFJObHYDkBoqCh66vFERpyphNtOelYxIS54bwp2XzGnwu7LwPXbCKEXYPlNgeUVY0awXPqJwHJlFrBcWYDlBVhegOWJYNmcDpbNG5l2MA6WV5cXYHkBlt8psGwuwPK7ApZHis/bDJZXc2D5I+xFRINzJI7m+vyOOaLQ0ifh5qmibweEfvnw7vMnXwy/+nJ458/DW98vUPSbQtGV8mwo2lj9aVB0aXUGFC2FFih6gaLfJhQdv7UbR9Ex55Uo+uLBox9v3x1++nh47+Hw3lcXj+7/j3C6NB1Ol25kGsY4nC4t4PQCTr9bcLq0gNPvCpweKT7/Fzitp49FkroYNIhH2HwPqfVUeyc4fW1dOPt5VZt0z3OUM+d775K4JZ0g+5qcB8qbekwug64ahoC0+OvTuV9/x6+m9rF/PKdVcktCkT8/gtXV8+wtN6TsOm9M6pekHCaUQwlZr/OHyPKHGB9aZVMSQEDPzq7nzIxTmMm3/YHXcnvunG+SjDjP85OAL/t9iema80UMbzG75BwQZ2YGKI7dX0L7kI/45plNBi7U1ESfP5yl7vEJm9ewK11MHNI1inaXlIplx6gU1whZLpom/B/bJfi2WOHPbtXkUEFccjbnInp8YOm/ubH+CyC6WfysMwAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.01561590289697475</v>
+        <v>0.0156159028969747</v>
       </c>
       <c r="C20" s="2">
-        <v>0.5088159326089573</v>
+        <v>0.5088159326089575</v>
       </c>
       <c r="D20" s="2">
         <v>0.5012749293714148</v>
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.075751539480831</v>
+        <v>-1.075751539480832</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.4977563153662574</v>
+        <v>-0.497756315366257</v>
       </c>
       <c r="D21" s="2">
         <v>-0.7795762174608876</v>
@@ -1030,59 +1030,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>4</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA9336C6-D94F-4297-875A-509DE4A6EAA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>